--- a/HS10X/HS101-PRO/BOM/H101-PRO_Component_List_V1.1.xlsx
+++ b/HS10X/HS101-PRO/BOM/H101-PRO_Component_List_V1.1.xlsx
@@ -110,19 +110,19 @@
     <t>C2</t>
   </si>
   <si>
-    <t>10-100uF</t>
+    <t>47pF</t>
   </si>
   <si>
     <t>Capacitor</t>
   </si>
   <si>
-    <t>Higher value = best, default 47uF</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>47uF - 6.3V</t>
+    <t>10-100uF</t>
+  </si>
+  <si>
+    <t>Higher value = best, default 47uF</t>
   </si>
   <si>
     <t>C5</t>
@@ -247,8 +247,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -293,9 +293,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,14 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,23 +367,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,45 +401,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +423,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,7 +451,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,19 +517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,55 +547,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,13 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,43 +619,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,26 +673,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,6 +689,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,6 +717,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -732,26 +743,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,6 +761,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -778,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,133 +790,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1305,7 +1305,7 @@
   <dimension ref="A2:BER24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2952,9 +2952,6 @@
       </c>
       <c r="F10" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -4453,13 +4450,13 @@
     <row r="11" ht="15" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="12">
         <v>1</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>28</v>
+      <c r="D11" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>25</v>
@@ -4467,7 +4464,9 @@
       <c r="F11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="30" spans="1:1500">
       <c r="A12" s="4"/>
